--- a/media/FULLERTON_RECOVERY/FOS Salary/FOS_SALARY_FULLERTON_RECOVERY.xlsx
+++ b/media/FULLERTON_RECOVERY/FOS Salary/FOS_SALARY_FULLERTON_RECOVERY.xlsx
@@ -491,7 +491,7 @@
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Unnamed: 0</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
@@ -571,7 +571,7 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>O50</t>
+          <t>O233</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
@@ -586,12 +586,12 @@
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>IDFC</t>
+          <t>MAGMA</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>HL</t>
+          <t>AUTO</t>
         </is>
       </c>
     </row>
@@ -709,11 +709,7 @@
           <t>T007</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>O239</t>
-        </is>
-      </c>
+      <c r="N4" t="inlineStr"/>
       <c r="O4" t="inlineStr">
         <is>
           <t>FOS</t>
@@ -721,7 +717,7 @@
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>ACTIVE</t>
+          <t>INACTIVE</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
@@ -779,11 +775,7 @@
           <t>P019</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>O72</t>
-        </is>
-      </c>
+      <c r="N5" t="inlineStr"/>
       <c r="O5" t="inlineStr">
         <is>
           <t>FOS</t>
@@ -791,17 +783,17 @@
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>ACTIVE</t>
+          <t>INACTIVE</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>IDFC</t>
+          <t>MAGMA</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>HL</t>
+          <t>AUTO</t>
         </is>
       </c>
     </row>
@@ -849,11 +841,7 @@
           <t>P111</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>O72</t>
-        </is>
-      </c>
+      <c r="N6" t="inlineStr"/>
       <c r="O6" t="inlineStr">
         <is>
           <t>FOS</t>
@@ -861,7 +849,7 @@
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>ACTIVE</t>
+          <t>INACTIVE</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
@@ -871,7 +859,7 @@
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>HL</t>
+          <t>TW</t>
         </is>
       </c>
     </row>
@@ -921,7 +909,7 @@
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>O239</t>
+          <t>O162</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
@@ -989,11 +977,7 @@
           <t>P117</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>O50</t>
-        </is>
-      </c>
+      <c r="N8" t="inlineStr"/>
       <c r="O8" t="inlineStr">
         <is>
           <t>FOS</t>
@@ -1001,17 +985,17 @@
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>ACTIVE</t>
+          <t>INACTIVE</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>IDFC</t>
+          <t>MUTHOOT</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>HL</t>
+          <t>TW</t>
         </is>
       </c>
     </row>
@@ -1067,7 +1051,7 @@
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>ACTIVE</t>
+          <t>INACTIVE</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
@@ -1127,7 +1111,7 @@
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>O239</t>
+          <t>O162</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
@@ -1195,11 +1179,7 @@
           <t>P256</t>
         </is>
       </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>O239</t>
-        </is>
-      </c>
+      <c r="N11" t="inlineStr"/>
       <c r="O11" t="inlineStr">
         <is>
           <t>FOS</t>
@@ -1207,7 +1187,7 @@
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>ACTIVE</t>
+          <t>INACTIVE</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
@@ -1267,7 +1247,7 @@
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>O239</t>
+          <t>O162</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
@@ -1335,11 +1315,7 @@
           <t>P126</t>
         </is>
       </c>
-      <c r="N13" t="inlineStr">
-        <is>
-          <t>O72</t>
-        </is>
-      </c>
+      <c r="N13" t="inlineStr"/>
       <c r="O13" t="inlineStr">
         <is>
           <t>FOS</t>
@@ -1347,7 +1323,7 @@
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>ACTIVE</t>
+          <t>INACTIVE</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr">
@@ -1357,7 +1333,7 @@
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>HL</t>
+          <t>TW</t>
         </is>
       </c>
     </row>
